--- a/admin/configuraciones/estadisticas/plantilla.xlsx
+++ b/admin/configuraciones/estadisticas/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\cargaHoraria\admin\configuraciones\estadisticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B079A26E-6547-4F8D-9DCB-70FA75839A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08396B9E-29CC-4FE9-A307-10A5B4041815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,29 +21,22 @@
     <definedName name="Materias">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HORARIO CUATRIMESTRAL PERSONALIZADO SEPTIEMBRE - DICIEMBRE 2024</t>
   </si>
   <si>
+    <t>Nombre del PA determinado:</t>
+  </si>
+  <si>
     <t>Horas totales:</t>
+  </si>
+  <si>
+    <t>Horas frente a grupo:</t>
   </si>
   <si>
     <t>HORA</t>
@@ -91,18 +84,6 @@
     <t>14:00 - 15:00</t>
   </si>
   <si>
-    <t>Asignatura</t>
-  </si>
-  <si>
-    <t>Profesor</t>
-  </si>
-  <si>
-    <t>Aula:</t>
-  </si>
-  <si>
-    <t>Grupo:</t>
-  </si>
-  <si>
     <t>15:00 - 16:00</t>
   </si>
   <si>
@@ -117,12 +98,33 @@
   <si>
     <t>19:00 - 20:00</t>
   </si>
+  <si>
+    <t>DIRECTOR ACADÉMICO</t>
+  </si>
+  <si>
+    <t>FIRMA DE CONOCIMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELLO DELEGACIÓN ADMINISTRATIVA                                         </t>
+  </si>
+  <si>
+    <t>COMISIÓN ACADÉMICA DICTAMINADORA</t>
+  </si>
+  <si>
+    <t>SUBDIRECTOR DE CARRERA</t>
+  </si>
+  <si>
+    <t>SELLO DE SUBDIRECCIÓN DE PLANEACIÓN ACADÉMICA</t>
+  </si>
+  <si>
+    <t>PROFESOR(A)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -147,31 +149,40 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="20"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +201,14 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AD5D2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -260,11 +277,100 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -282,82 +388,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -365,20 +431,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -390,103 +443,132 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -496,9 +578,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -536,80 +620,144 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,6 +774,128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2276475" cy="714375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1828800" cy="847725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image4.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1809750" cy="704850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,28 +1129,28 @@
     <tabColor rgb="FF4A86E8"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z968"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C51" sqref="C51:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="6" width="40.44140625" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" customWidth="1"/>
-    <col min="8" max="26" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="43.88671875" customWidth="1"/>
+    <col min="8" max="26" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -902,17 +1172,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -934,15 +1202,17 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="14" t="s">
-        <v>19</v>
+      <c r="A3" s="53" t="s">
+        <v>1</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -964,15 +1234,15 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="12" t="s">
-        <v>1</v>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="15" t="s">
+        <v>3</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -993,27 +1263,27 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>8</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1065,7 +1335,7 @@
     </row>
     <row r="7" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1151,7 +1421,7 @@
     </row>
     <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1237,7 +1507,7 @@
     </row>
     <row r="13" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1323,7 +1593,7 @@
     </row>
     <row r="16" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1409,7 +1679,7 @@
     </row>
     <row r="19" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1495,7 +1765,7 @@
     </row>
     <row r="22" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1581,7 +1851,7 @@
     </row>
     <row r="25" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1667,7 +1937,7 @@
     </row>
     <row r="28" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1695,7 +1965,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1751,9 +2021,9 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1781,7 +2051,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1837,9 +2107,9 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1867,14 +2137,14 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1923,9 +2193,9 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1953,14 +2223,14 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2009,9 +2279,9 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2039,14 +2309,14 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2095,9 +2365,9 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2125,14 +2395,14 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2153,14 +2423,14 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+    <row r="45" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2181,14 +2451,14 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+    <row r="46" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2210,13 +2480,13 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2237,14 +2507,20 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+    <row r="48" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="48"/>
+      <c r="C48" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="28"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2265,18 +2541,16 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
-        <v>17</v>
+    <row r="49" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2297,14 +2571,14 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+    <row r="50" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2326,13 +2600,13 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2354,13 +2628,13 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2382,13 +2656,15 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="A53" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2410,13 +2686,17 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="26"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2438,13 +2718,13 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2465,11 +2745,11 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="31"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -7085,42 +7365,987 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+      <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
+    </row>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
+      <c r="Y222" s="1"/>
+      <c r="Z222" s="1"/>
+    </row>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+      <c r="Y223" s="1"/>
+      <c r="Z223" s="1"/>
+    </row>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
+      <c r="W224" s="1"/>
+      <c r="X224" s="1"/>
+      <c r="Y224" s="1"/>
+      <c r="Z224" s="1"/>
+    </row>
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
+      <c r="W225" s="1"/>
+      <c r="X225" s="1"/>
+      <c r="Y225" s="1"/>
+      <c r="Z225" s="1"/>
+    </row>
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
+      <c r="Y226" s="1"/>
+      <c r="Z226" s="1"/>
+    </row>
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
+    </row>
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
+      <c r="W228" s="1"/>
+      <c r="X228" s="1"/>
+      <c r="Y228" s="1"/>
+      <c r="Z228" s="1"/>
+    </row>
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+      <c r="Y229" s="1"/>
+      <c r="Z229" s="1"/>
+    </row>
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
+    </row>
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+    </row>
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+    </row>
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+    </row>
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+    </row>
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+    </row>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
+    </row>
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+    </row>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+      <c r="W238" s="1"/>
+      <c r="X238" s="1"/>
+      <c r="Y238" s="1"/>
+      <c r="Z238" s="1"/>
+    </row>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
+    </row>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
+    </row>
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
+    </row>
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+    </row>
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+    </row>
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
+      <c r="W244" s="1"/>
+      <c r="X244" s="1"/>
+      <c r="Y244" s="1"/>
+      <c r="Z244" s="1"/>
+    </row>
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="X245" s="1"/>
+      <c r="Y245" s="1"/>
+      <c r="Z245" s="1"/>
+    </row>
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
+      <c r="W246" s="1"/>
+      <c r="X246" s="1"/>
+      <c r="Y246" s="1"/>
+      <c r="Z246" s="1"/>
+    </row>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
+      <c r="W247" s="1"/>
+      <c r="X247" s="1"/>
+      <c r="Y247" s="1"/>
+      <c r="Z247" s="1"/>
+    </row>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+      <c r="W248" s="1"/>
+      <c r="X248" s="1"/>
+      <c r="Y248" s="1"/>
+      <c r="Z248" s="1"/>
+    </row>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+      <c r="W249" s="1"/>
+      <c r="X249" s="1"/>
+      <c r="Y249" s="1"/>
+      <c r="Z249" s="1"/>
+    </row>
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
+      <c r="W250" s="1"/>
+      <c r="X250" s="1"/>
+      <c r="Y250" s="1"/>
+      <c r="Z250" s="1"/>
+    </row>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+      <c r="Y251" s="1"/>
+      <c r="Z251" s="1"/>
+    </row>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
+      <c r="W252" s="1"/>
+      <c r="X252" s="1"/>
+      <c r="Y252" s="1"/>
+      <c r="Z252" s="1"/>
+    </row>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
+      <c r="W253" s="1"/>
+      <c r="X253" s="1"/>
+      <c r="Y253" s="1"/>
+      <c r="Z253" s="1"/>
+    </row>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+      <c r="U254" s="1"/>
+      <c r="V254" s="1"/>
+      <c r="W254" s="1"/>
+      <c r="X254" s="1"/>
+      <c r="Y254" s="1"/>
+      <c r="Z254" s="1"/>
+    </row>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="1"/>
+      <c r="W255" s="1"/>
+      <c r="X255" s="1"/>
+      <c r="Y255" s="1"/>
+      <c r="Z255" s="1"/>
+    </row>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7833,30 +9058,80 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="33">
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:E4"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.22326454033771001" right="0.22326454033771001" top="0.20731707317073" bottom="0.22326454033771001" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/admin/configuraciones/estadisticas/plantilla.xlsx
+++ b/admin/configuraciones/estadisticas/plantilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\cargaHoraria\admin\configuraciones\estadisticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08396B9E-29CC-4FE9-A307-10A5B4041815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74466DB0-DB14-4447-AAB7-1BE5EDCBA7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HORARIO BLANCO" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>HORARIO CUATRIMESTRAL PERSONALIZADO SEPTIEMBRE - DICIEMBRE 2024</t>
-  </si>
   <si>
     <t>Nombre del PA determinado:</t>
   </si>
@@ -119,6 +116,9 @@
   <si>
     <t>PROFESOR(A)</t>
   </si>
+  <si>
+    <t>HORARIO CUATRIMESTRAL PERSONALIZADO ENERO-ABRIL 2025</t>
+  </si>
 </sst>
 </file>
 
@@ -135,51 +135,60 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -650,88 +659,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,6 +685,88 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,25 +1141,25 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:E51"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="6" width="40.44140625" customWidth="1"/>
-    <col min="7" max="7" width="43.88671875" customWidth="1"/>
-    <col min="8" max="26" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
+    <col min="8" max="26" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+    <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1171,16 +1180,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>0</v>
+    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>30</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1201,16 +1210,16 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>1</v>
+    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="17"/>
       <c r="F3" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="2"/>
@@ -1233,14 +1242,14 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="18"/>
       <c r="F4" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="2"/>
@@ -1263,27 +1272,27 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>10</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1305,7 +1314,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1333,9 +1342,9 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1363,7 +1372,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1391,7 +1400,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1419,9 +1428,9 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1449,7 +1458,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1477,7 +1486,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1505,9 +1514,9 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1535,7 +1544,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1563,7 +1572,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1591,9 +1600,9 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1621,7 +1630,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1649,7 +1658,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1677,9 +1686,9 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1707,7 +1716,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1735,7 +1744,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1763,9 +1772,9 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1793,7 +1802,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1821,7 +1830,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1849,9 +1858,9 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1879,7 +1888,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1907,7 +1916,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1935,9 +1944,9 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1965,7 +1974,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1993,7 +2002,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2021,9 +2030,9 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2051,7 +2060,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2079,7 +2088,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2107,9 +2116,9 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2137,7 +2146,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2165,7 +2174,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2193,9 +2202,9 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2223,7 +2232,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2251,7 +2260,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2279,9 +2288,9 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2309,7 +2318,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2337,7 +2346,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2365,9 +2374,9 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2395,7 +2404,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2423,14 +2432,14 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
+    <row r="45" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2451,14 +2460,14 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
+    <row r="46" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2479,14 +2488,14 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="24"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="51"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2507,20 +2516,20 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47" t="s">
+    <row r="48" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="28"/>
+      <c r="G48" s="53"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2541,16 +2550,16 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>25</v>
+    <row r="49" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>24</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2571,14 +2580,14 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
+    <row r="50" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2599,14 +2608,14 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="51"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2627,14 +2636,14 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2655,16 +2664,16 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>26</v>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="46" t="s">
+        <v>25</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2685,18 +2694,18 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="41" t="s">
-        <v>27</v>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="60" t="s">
+        <v>26</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="25" t="s">
-        <v>30</v>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="63" t="s">
+        <v>29</v>
       </c>
-      <c r="G54" s="26"/>
+      <c r="G54" s="64"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2717,14 +2726,14 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2745,7 +2754,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2773,7 +2782,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2801,7 +2810,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2829,7 +2838,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2857,7 +2866,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2885,7 +2894,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2913,7 +2922,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2941,7 +2950,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2969,7 +2978,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2997,7 +3006,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3025,7 +3034,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3053,7 +3062,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3081,7 +3090,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3109,7 +3118,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3137,7 +3146,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3165,7 +3174,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3193,7 +3202,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3221,7 +3230,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3249,7 +3258,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3277,7 +3286,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3305,7 +3314,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3333,7 +3342,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3361,7 +3370,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3389,7 +3398,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3417,7 +3426,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3445,7 +3454,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3473,7 +3482,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3501,7 +3510,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3529,7 +3538,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3557,7 +3566,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3585,7 +3594,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3613,7 +3622,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3641,7 +3650,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3669,7 +3678,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3697,7 +3706,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3725,7 +3734,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3753,7 +3762,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3781,7 +3790,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3809,7 +3818,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3837,7 +3846,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3865,7 +3874,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3893,7 +3902,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3921,7 +3930,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3949,7 +3958,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3977,7 +3986,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4005,7 +4014,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4033,7 +4042,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4061,7 +4070,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4089,7 +4098,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4117,7 +4126,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4145,7 +4154,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4173,7 +4182,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4201,7 +4210,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4229,7 +4238,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4257,7 +4266,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4285,7 +4294,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4313,7 +4322,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4341,7 +4350,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4369,7 +4378,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4397,7 +4406,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4425,7 +4434,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4453,7 +4462,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4481,7 +4490,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4509,7 +4518,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4537,7 +4546,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4565,7 +4574,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4593,7 +4602,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4621,7 +4630,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4649,7 +4658,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4677,7 +4686,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4705,7 +4714,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4733,7 +4742,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4761,7 +4770,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4789,7 +4798,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4817,7 +4826,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4845,7 +4854,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4873,7 +4882,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4901,7 +4910,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4929,7 +4938,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4957,7 +4966,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4985,7 +4994,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5013,7 +5022,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5041,7 +5050,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5069,7 +5078,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5097,7 +5106,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5125,7 +5134,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5153,7 +5162,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5181,7 +5190,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5209,7 +5218,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5237,7 +5246,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5265,7 +5274,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5293,7 +5302,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5321,7 +5330,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5349,7 +5358,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5377,7 +5386,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5405,7 +5414,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5433,7 +5442,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5461,7 +5470,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5489,7 +5498,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5517,7 +5526,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5545,7 +5554,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5573,7 +5582,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5601,7 +5610,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5629,7 +5638,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5657,7 +5666,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5685,7 +5694,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5713,7 +5722,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5741,7 +5750,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5769,7 +5778,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5797,7 +5806,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5825,7 +5834,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5853,7 +5862,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5881,7 +5890,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5909,7 +5918,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5937,7 +5946,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5965,7 +5974,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5993,7 +6002,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6021,7 +6030,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6049,7 +6058,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6077,7 +6086,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6105,7 +6114,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6133,7 +6142,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6161,7 +6170,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6189,7 +6198,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6217,7 +6226,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6245,7 +6254,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6273,7 +6282,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6301,7 +6310,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6329,7 +6338,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6357,7 +6366,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6385,7 +6394,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6413,7 +6422,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6441,7 +6450,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6469,7 +6478,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6497,7 +6506,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6525,7 +6534,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6553,7 +6562,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6581,7 +6590,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6609,7 +6618,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6637,7 +6646,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6665,7 +6674,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6693,7 +6702,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6721,7 +6730,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6749,7 +6758,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6777,7 +6786,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6805,7 +6814,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6833,7 +6842,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6861,7 +6870,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6889,7 +6898,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6917,7 +6926,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6945,7 +6954,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6973,7 +6982,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7001,7 +7010,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7029,7 +7038,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7057,7 +7066,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7085,7 +7094,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7113,7 +7122,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7141,7 +7150,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7169,7 +7178,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7197,7 +7206,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7225,7 +7234,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7253,7 +7262,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7281,7 +7290,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7309,7 +7318,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7337,7 +7346,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7365,7 +7374,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7393,7 +7402,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7421,7 +7430,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7449,7 +7458,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7477,7 +7486,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7505,7 +7514,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7533,7 +7542,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7561,7 +7570,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7589,7 +7598,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7617,7 +7626,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7645,7 +7654,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7673,7 +7682,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7701,7 +7710,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7729,7 +7738,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7757,7 +7766,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7785,7 +7794,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7813,7 +7822,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7841,7 +7850,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7869,7 +7878,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7897,7 +7906,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7925,7 +7934,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7953,7 +7962,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7981,7 +7990,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8009,7 +8018,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8037,7 +8046,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8065,7 +8074,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8093,7 +8102,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8121,7 +8130,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8149,7 +8158,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8177,7 +8186,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8205,7 +8214,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8233,7 +8242,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8261,7 +8270,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8289,7 +8298,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8317,7 +8326,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8345,779 +8354,756 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C50:E50"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="F51:G51"/>
@@ -9128,6 +9114,29 @@
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A45:G45"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.22326454033771001" right="0.22326454033771001" top="0.20731707317073" bottom="0.22326454033771001" header="0" footer="0"/>

--- a/admin/configuraciones/estadisticas/plantilla.xlsx
+++ b/admin/configuraciones/estadisticas/plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\cargaHoraria\admin\configuraciones\estadisticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74466DB0-DB14-4447-AAB7-1BE5EDCBA7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3103CE8-2820-4096-80B7-775703B97CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HORARIO BLANCO" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Nombre del PA determinado:</t>
-  </si>
   <si>
     <t>Horas totales:</t>
   </si>
@@ -96,7 +93,13 @@
     <t>19:00 - 20:00</t>
   </si>
   <si>
+    <t>SUBDIRECTORA DE CARRERA</t>
+  </si>
+  <si>
     <t>DIRECTOR ACADÉMICO</t>
+  </si>
+  <si>
+    <t>SELLO PLANEACIÓN Y EVALUACIÓN</t>
   </si>
   <si>
     <t>FIRMA DE CONOCIMIENTO</t>
@@ -108,23 +111,20 @@
     <t>COMISIÓN ACADÉMICA DICTAMINADORA</t>
   </si>
   <si>
-    <t>SUBDIRECTOR DE CARRERA</t>
+    <t>Nombre del Docente:</t>
   </si>
   <si>
-    <t>SELLO DE SUBDIRECCIÓN DE PLANEACIÓN ACADÉMICA</t>
+    <t>DOCENTE</t>
   </si>
   <si>
-    <t>PROFESOR(A)</t>
-  </si>
-  <si>
-    <t>HORARIO CUATRIMESTRAL PERSONALIZADO ENERO-ABRIL 2025</t>
+    <t>HORARIO CUATRIMESTRAL ENERO - ABRIL 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,6 +135,58 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -147,47 +199,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -217,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -595,11 +607,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -647,34 +721,127 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,87 +853,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,26 +1240,26 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="6" width="40.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" customWidth="1"/>
-    <col min="8" max="26" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="6" width="40.44140625" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" customWidth="1"/>
+    <col min="8" max="26" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+    <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1180,16 +1280,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1210,16 +1310,16 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15" t="s">
-        <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="2"/>
@@ -1242,16 +1342,16 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="18"/>
+    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1272,27 +1372,27 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1314,7 +1414,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1342,9 +1442,9 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1372,7 +1472,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1400,7 +1500,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1428,9 +1528,9 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1458,7 +1558,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1486,7 +1586,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1514,9 +1614,9 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1544,7 +1644,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1572,7 +1672,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1600,9 +1700,9 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1630,7 +1730,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1658,7 +1758,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1686,9 +1786,9 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1716,7 +1816,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1744,7 +1844,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1772,9 +1872,9 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1802,7 +1902,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1830,7 +1930,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1858,9 +1958,9 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1888,7 +1988,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1916,7 +2016,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1944,9 +2044,9 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1974,7 +2074,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2002,7 +2102,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2030,9 +2130,9 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2060,7 +2160,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2088,7 +2188,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2116,9 +2216,9 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2146,7 +2246,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2174,7 +2274,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2202,9 +2302,9 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2232,7 +2332,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2260,7 +2360,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2288,9 +2388,9 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2318,7 +2418,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2346,7 +2446,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2374,9 +2474,9 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2404,7 +2504,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2432,14 +2532,14 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
+    <row r="45" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2460,14 +2560,14 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+    <row r="46" spans="1:26" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2488,14 +2588,20 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="51"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="44"/>
+      <c r="C47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="21"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2516,20 +2622,14 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="53"/>
+    <row r="48" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2550,16 +2650,16 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>24</v>
+    <row r="49" spans="1:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24" t="s">
+        <v>25</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="36"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2580,14 +2680,14 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+    <row r="50" spans="1:26" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2608,14 +2708,18 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="51"/>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="27"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2636,14 +2740,14 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2664,16 +2768,16 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
-        <v>25</v>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="55" t="s">
+        <v>26</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2694,18 +2798,14 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="64"/>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2726,14 +2826,14 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2754,7 +2854,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2782,7 +2882,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2810,7 +2910,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2838,7 +2938,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2866,7 +2966,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2894,7 +2994,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2922,7 +3022,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2950,7 +3050,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2978,7 +3078,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3006,7 +3106,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3034,7 +3134,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3062,7 +3162,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3090,7 +3190,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3118,7 +3218,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3146,7 +3246,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3174,7 +3274,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3202,7 +3302,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3230,7 +3330,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3258,7 +3358,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3286,7 +3386,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3314,7 +3414,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3342,7 +3442,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3370,7 +3470,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3398,7 +3498,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3426,7 +3526,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3454,7 +3554,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3482,7 +3582,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3510,7 +3610,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3538,7 +3638,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3566,7 +3666,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3594,7 +3694,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3622,7 +3722,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3650,7 +3750,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3678,7 +3778,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3706,7 +3806,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3734,7 +3834,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3762,7 +3862,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3790,7 +3890,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3818,7 +3918,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3846,7 +3946,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3874,7 +3974,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3902,7 +4002,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3930,7 +4030,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3958,7 +4058,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3986,7 +4086,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4014,7 +4114,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4042,7 +4142,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4070,7 +4170,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4098,7 +4198,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4126,7 +4226,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4154,7 +4254,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4182,7 +4282,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4210,7 +4310,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4238,7 +4338,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4266,7 +4366,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4294,7 +4394,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4322,7 +4422,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4350,7 +4450,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4378,7 +4478,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4406,7 +4506,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4434,7 +4534,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4462,7 +4562,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4490,7 +4590,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4518,7 +4618,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4546,7 +4646,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4574,7 +4674,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4602,7 +4702,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4630,7 +4730,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4658,7 +4758,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4686,7 +4786,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4714,7 +4814,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4742,7 +4842,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4770,7 +4870,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4798,7 +4898,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4826,7 +4926,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4854,7 +4954,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4882,7 +4982,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4910,7 +5010,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4938,7 +5038,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4966,7 +5066,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4994,7 +5094,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5022,7 +5122,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5050,7 +5150,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5078,7 +5178,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5106,7 +5206,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5134,7 +5234,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5162,7 +5262,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5190,7 +5290,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5218,7 +5318,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5246,7 +5346,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5274,7 +5374,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5302,7 +5402,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5330,7 +5430,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5358,7 +5458,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5386,7 +5486,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5414,7 +5514,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5442,7 +5542,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5470,7 +5570,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5498,7 +5598,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5526,7 +5626,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5554,7 +5654,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5582,7 +5682,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5610,7 +5710,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5638,7 +5738,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5666,7 +5766,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5694,7 +5794,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5722,7 +5822,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5750,7 +5850,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5778,7 +5878,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5806,7 +5906,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5834,7 +5934,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5862,7 +5962,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5890,7 +5990,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5918,7 +6018,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5946,7 +6046,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5974,7 +6074,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6002,7 +6102,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6030,7 +6130,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6058,7 +6158,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6086,7 +6186,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6114,7 +6214,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6142,7 +6242,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6170,7 +6270,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6198,7 +6298,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6226,7 +6326,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6254,7 +6354,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6282,7 +6382,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6310,7 +6410,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6338,7 +6438,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6366,7 +6466,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6394,7 +6494,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6422,7 +6522,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6450,7 +6550,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6478,7 +6578,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6506,7 +6606,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6534,7 +6634,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6562,7 +6662,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6590,7 +6690,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6618,7 +6718,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6646,7 +6746,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6674,7 +6774,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6702,7 +6802,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6730,7 +6830,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6758,7 +6858,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6786,7 +6886,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6814,7 +6914,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6842,7 +6942,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6870,7 +6970,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6898,7 +6998,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6926,7 +7026,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6954,7 +7054,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6982,7 +7082,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7010,7 +7110,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7038,7 +7138,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7066,7 +7166,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7094,7 +7194,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7122,7 +7222,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7150,7 +7250,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7178,7 +7278,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7206,7 +7306,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7234,7 +7334,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7262,7 +7362,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7290,7 +7390,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7318,7 +7418,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7346,7 +7446,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7374,7 +7474,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7402,7 +7502,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7430,7 +7530,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7458,7 +7558,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7486,7 +7586,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7514,7 +7614,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7542,7 +7642,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7570,7 +7670,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7598,7 +7698,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7626,7 +7726,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7654,7 +7754,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7682,7 +7782,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7710,7 +7810,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7738,7 +7838,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7766,7 +7866,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7794,7 +7894,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7822,7 +7922,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7850,7 +7950,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7878,7 +7978,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7906,7 +8006,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7934,7 +8034,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7962,7 +8062,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7990,7 +8090,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8018,7 +8118,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8046,7 +8146,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8074,7 +8174,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8102,7 +8202,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8130,7 +8230,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8158,7 +8258,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8186,7 +8286,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8214,7 +8314,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8242,7 +8342,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8270,7 +8370,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8298,7 +8398,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8326,7 +8426,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8354,789 +8454,778 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
+  <mergeCells count="22">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C51:E55"/>
+    <mergeCell ref="F51:G55"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
     <mergeCell ref="A49:G49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="F47:G48"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A45:G45"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.22326454033771001" right="0.22326454033771001" top="0.20731707317073" bottom="0.22326454033771001" header="0" footer="0"/>

--- a/admin/configuraciones/estadisticas/plantilla.xlsx
+++ b/admin/configuraciones/estadisticas/plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\cargaHoraria\admin\configuraciones\estadisticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3103CE8-2820-4096-80B7-775703B97CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F5BE69-2AA6-4019-971E-8558ADD37F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HORARIO BLANCO" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>DOCENTE</t>
   </si>
   <si>
-    <t>HORARIO CUATRIMESTRAL ENERO - ABRIL 2025</t>
+    <t>HORARIO CUATRIMESTRAL MAYO - AGOSTO 2025</t>
   </si>
 </sst>
 </file>
@@ -135,45 +135,53 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -229,34 +237,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -336,40 +320,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -392,32 +348,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -594,21 +524,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -669,204 +584,261 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,28 +1210,28 @@
     <tabColor rgb="FF4A86E8"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="6" width="40.44140625" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" customWidth="1"/>
-    <col min="8" max="26" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
+    <col min="8" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+    <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1280,16 +1252,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1310,18 +1282,18 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1342,16 +1314,16 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="15" t="s">
+    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1372,26 +1344,26 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2"/>
@@ -1414,14 +1386,16 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+    <row r="6" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1442,16 +1416,16 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
+    <row r="7" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1472,14 +1446,16 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="8" spans="1:26" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1500,14 +1476,16 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+    <row r="9" spans="1:26" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1528,16 +1506,16 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
+    <row r="10" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1558,14 +1536,16 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+    <row r="11" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1586,14 +1566,16 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+    <row r="12" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1614,16 +1596,16 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
+    <row r="13" spans="1:26" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1644,14 +1626,16 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+    <row r="14" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1672,14 +1656,16 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+    <row r="15" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1700,16 +1686,16 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
+    <row r="16" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>19</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1730,14 +1716,16 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+    <row r="17" spans="1:26" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1758,14 +1746,16 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+    <row r="18" spans="1:26" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1786,16 +1776,14 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+    <row r="19" spans="1:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1816,14 +1804,14 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+    <row r="20" spans="1:26" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1844,14 +1832,20 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1872,16 +1866,14 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+    <row r="22" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1902,14 +1894,16 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+    <row r="23" spans="1:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1930,14 +1924,14 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:26" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1958,16 +1952,18 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>15</v>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="14" t="s">
+        <v>27</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="47"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1988,14 +1984,14 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2016,14 +2012,16 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2044,16 +2042,14 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2074,14 +2070,14 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2102,14 +2098,14 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2130,16 +2126,14 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2160,14 +2154,14 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2188,14 +2182,14 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2216,16 +2210,14 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2246,14 +2238,14 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2274,14 +2266,14 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2302,16 +2294,14 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2332,14 +2322,14 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2360,14 +2350,14 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2388,16 +2378,14 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2418,14 +2406,14 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2446,14 +2434,14 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2474,16 +2462,14 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2504,14 +2490,14 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2532,14 +2518,14 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2560,14 +2546,14 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2588,20 +2574,14 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="21"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2622,14 +2602,14 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2650,16 +2630,14 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="36"/>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2680,14 +2658,14 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2708,18 +2686,14 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="27"/>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2740,14 +2714,14 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2768,16 +2742,14 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2798,14 +2770,14 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2826,14 +2798,14 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2854,7 +2826,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2882,7 +2854,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2910,7 +2882,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2938,7 +2910,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2966,7 +2938,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2994,7 +2966,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3022,7 +2994,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3050,7 +3022,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3078,7 +3050,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3106,7 +3078,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3134,7 +3106,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3162,7 +3134,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3190,7 +3162,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3218,7 +3190,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3246,7 +3218,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3274,7 +3246,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3302,7 +3274,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3330,7 +3302,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3358,7 +3330,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3386,7 +3358,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3414,7 +3386,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3442,7 +3414,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3470,7 +3442,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3498,7 +3470,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3526,7 +3498,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3554,7 +3526,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3582,7 +3554,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3610,7 +3582,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3638,7 +3610,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3666,7 +3638,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3694,7 +3666,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3722,7 +3694,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3750,7 +3722,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3778,7 +3750,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3806,7 +3778,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3834,7 +3806,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3862,7 +3834,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3890,7 +3862,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3918,7 +3890,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3946,7 +3918,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3974,7 +3946,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4002,7 +3974,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4030,7 +4002,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4058,7 +4030,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4086,7 +4058,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4114,7 +4086,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4142,7 +4114,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4170,7 +4142,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4198,7 +4170,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4226,7 +4198,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4254,7 +4226,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4282,7 +4254,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4310,7 +4282,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4338,7 +4310,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4366,7 +4338,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4394,7 +4366,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4422,7 +4394,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4450,7 +4422,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4478,7 +4450,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4506,7 +4478,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4534,7 +4506,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4562,7 +4534,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4590,7 +4562,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4618,7 +4590,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4646,7 +4618,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4674,7 +4646,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4702,7 +4674,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4730,7 +4702,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4758,7 +4730,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4786,7 +4758,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4814,7 +4786,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4842,7 +4814,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4870,7 +4842,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4898,7 +4870,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4926,7 +4898,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4954,7 +4926,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4982,7 +4954,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5010,7 +4982,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5038,7 +5010,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5066,7 +5038,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5094,7 +5066,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5122,7 +5094,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5150,7 +5122,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5178,7 +5150,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5206,7 +5178,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5234,7 +5206,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5262,7 +5234,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5290,7 +5262,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5318,7 +5290,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5346,7 +5318,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5374,7 +5346,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5402,7 +5374,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5430,7 +5402,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5458,7 +5430,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5486,7 +5458,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5514,7 +5486,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5542,7 +5514,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5570,7 +5542,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5598,7 +5570,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5626,7 +5598,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5654,7 +5626,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5682,7 +5654,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5710,7 +5682,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5738,7 +5710,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5766,7 +5738,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5794,7 +5766,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5822,7 +5794,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5850,7 +5822,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5878,7 +5850,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5906,7 +5878,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5934,7 +5906,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5962,7 +5934,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5990,7 +5962,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6018,7 +5990,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6046,7 +6018,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6074,7 +6046,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6102,7 +6074,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6130,7 +6102,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6158,7 +6130,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6186,7 +6158,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6214,7 +6186,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6242,7 +6214,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6270,7 +6242,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6298,7 +6270,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6326,7 +6298,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6354,7 +6326,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6382,7 +6354,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6410,7 +6382,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6438,7 +6410,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6466,7 +6438,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6494,7 +6466,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6522,7 +6494,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6550,7 +6522,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6578,7 +6550,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6606,7 +6578,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6634,7 +6606,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6662,7 +6634,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6690,7 +6662,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6718,7 +6690,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6746,7 +6718,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6774,7 +6746,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6802,7 +6774,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6830,7 +6802,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6858,7 +6830,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6886,7 +6858,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6914,7 +6886,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6942,7 +6914,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6970,7 +6942,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6998,7 +6970,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7026,7 +6998,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7054,7 +7026,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7082,7 +7054,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7110,7 +7082,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7138,7 +7110,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7166,7 +7138,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7194,7 +7166,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7222,7 +7194,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7250,7 +7222,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7278,7 +7250,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7306,7 +7278,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7334,7 +7306,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7362,7 +7334,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7390,7 +7362,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7418,7 +7390,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7446,7 +7418,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7474,7 +7446,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7502,7 +7474,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7530,7 +7502,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7558,7 +7530,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7586,7 +7558,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7614,7 +7586,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7642,7 +7614,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7670,7 +7642,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7698,7 +7670,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7726,1506 +7698,778 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
-      <c r="Y230" s="1"/>
-      <c r="Z230" s="1"/>
-    </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
-    </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="X232" s="1"/>
-      <c r="Y232" s="1"/>
-      <c r="Z232" s="1"/>
-    </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="X233" s="1"/>
-      <c r="Y233" s="1"/>
-      <c r="Z233" s="1"/>
-    </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="X234" s="1"/>
-      <c r="Y234" s="1"/>
-      <c r="Z234" s="1"/>
-    </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
-      <c r="Q235" s="1"/>
-      <c r="R235" s="1"/>
-      <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="U235" s="1"/>
-      <c r="V235" s="1"/>
-      <c r="W235" s="1"/>
-      <c r="X235" s="1"/>
-      <c r="Y235" s="1"/>
-      <c r="Z235" s="1"/>
-    </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
-      <c r="S236" s="1"/>
-      <c r="T236" s="1"/>
-      <c r="U236" s="1"/>
-      <c r="V236" s="1"/>
-      <c r="W236" s="1"/>
-      <c r="X236" s="1"/>
-      <c r="Y236" s="1"/>
-      <c r="Z236" s="1"/>
-    </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-      <c r="R237" s="1"/>
-      <c r="S237" s="1"/>
-      <c r="T237" s="1"/>
-      <c r="U237" s="1"/>
-      <c r="V237" s="1"/>
-      <c r="W237" s="1"/>
-      <c r="X237" s="1"/>
-      <c r="Y237" s="1"/>
-      <c r="Z237" s="1"/>
-    </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
-      <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
-      <c r="Q238" s="1"/>
-      <c r="R238" s="1"/>
-      <c r="S238" s="1"/>
-      <c r="T238" s="1"/>
-      <c r="U238" s="1"/>
-      <c r="V238" s="1"/>
-      <c r="W238" s="1"/>
-      <c r="X238" s="1"/>
-      <c r="Y238" s="1"/>
-      <c r="Z238" s="1"/>
-    </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-      <c r="R239" s="1"/>
-      <c r="S239" s="1"/>
-      <c r="T239" s="1"/>
-      <c r="U239" s="1"/>
-      <c r="V239" s="1"/>
-      <c r="W239" s="1"/>
-      <c r="X239" s="1"/>
-      <c r="Y239" s="1"/>
-      <c r="Z239" s="1"/>
-    </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
-      <c r="R240" s="1"/>
-      <c r="S240" s="1"/>
-      <c r="T240" s="1"/>
-      <c r="U240" s="1"/>
-      <c r="V240" s="1"/>
-      <c r="W240" s="1"/>
-      <c r="X240" s="1"/>
-      <c r="Y240" s="1"/>
-      <c r="Z240" s="1"/>
-    </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
-      <c r="K241" s="1"/>
-      <c r="L241" s="1"/>
-      <c r="M241" s="1"/>
-      <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
-      <c r="P241" s="1"/>
-      <c r="Q241" s="1"/>
-      <c r="R241" s="1"/>
-      <c r="S241" s="1"/>
-      <c r="T241" s="1"/>
-      <c r="U241" s="1"/>
-      <c r="V241" s="1"/>
-      <c r="W241" s="1"/>
-      <c r="X241" s="1"/>
-      <c r="Y241" s="1"/>
-      <c r="Z241" s="1"/>
-    </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
-      <c r="R242" s="1"/>
-      <c r="S242" s="1"/>
-      <c r="T242" s="1"/>
-      <c r="U242" s="1"/>
-      <c r="V242" s="1"/>
-      <c r="W242" s="1"/>
-      <c r="X242" s="1"/>
-      <c r="Y242" s="1"/>
-      <c r="Z242" s="1"/>
-    </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
-      <c r="S243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="U243" s="1"/>
-      <c r="V243" s="1"/>
-      <c r="W243" s="1"/>
-      <c r="X243" s="1"/>
-      <c r="Y243" s="1"/>
-      <c r="Z243" s="1"/>
-    </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
-      <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
-      <c r="P244" s="1"/>
-      <c r="Q244" s="1"/>
-      <c r="R244" s="1"/>
-      <c r="S244" s="1"/>
-      <c r="T244" s="1"/>
-      <c r="U244" s="1"/>
-      <c r="V244" s="1"/>
-      <c r="W244" s="1"/>
-      <c r="X244" s="1"/>
-      <c r="Y244" s="1"/>
-      <c r="Z244" s="1"/>
-    </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
-      <c r="S245" s="1"/>
-      <c r="T245" s="1"/>
-      <c r="U245" s="1"/>
-      <c r="V245" s="1"/>
-      <c r="W245" s="1"/>
-      <c r="X245" s="1"/>
-      <c r="Y245" s="1"/>
-      <c r="Z245" s="1"/>
-    </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
-      <c r="K246" s="1"/>
-      <c r="L246" s="1"/>
-      <c r="M246" s="1"/>
-      <c r="N246" s="1"/>
-      <c r="O246" s="1"/>
-      <c r="P246" s="1"/>
-      <c r="Q246" s="1"/>
-      <c r="R246" s="1"/>
-      <c r="S246" s="1"/>
-      <c r="T246" s="1"/>
-      <c r="U246" s="1"/>
-      <c r="V246" s="1"/>
-      <c r="W246" s="1"/>
-      <c r="X246" s="1"/>
-      <c r="Y246" s="1"/>
-      <c r="Z246" s="1"/>
-    </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
-      <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
-      <c r="P247" s="1"/>
-      <c r="Q247" s="1"/>
-      <c r="R247" s="1"/>
-      <c r="S247" s="1"/>
-      <c r="T247" s="1"/>
-      <c r="U247" s="1"/>
-      <c r="V247" s="1"/>
-      <c r="W247" s="1"/>
-      <c r="X247" s="1"/>
-      <c r="Y247" s="1"/>
-      <c r="Z247" s="1"/>
-    </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
-      <c r="Q248" s="1"/>
-      <c r="R248" s="1"/>
-      <c r="S248" s="1"/>
-      <c r="T248" s="1"/>
-      <c r="U248" s="1"/>
-      <c r="V248" s="1"/>
-      <c r="W248" s="1"/>
-      <c r="X248" s="1"/>
-      <c r="Y248" s="1"/>
-      <c r="Z248" s="1"/>
-    </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
-      <c r="R249" s="1"/>
-      <c r="S249" s="1"/>
-      <c r="T249" s="1"/>
-      <c r="U249" s="1"/>
-      <c r="V249" s="1"/>
-      <c r="W249" s="1"/>
-      <c r="X249" s="1"/>
-      <c r="Y249" s="1"/>
-      <c r="Z249" s="1"/>
-    </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="M250" s="1"/>
-      <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
-      <c r="P250" s="1"/>
-      <c r="Q250" s="1"/>
-      <c r="R250" s="1"/>
-      <c r="S250" s="1"/>
-      <c r="T250" s="1"/>
-      <c r="U250" s="1"/>
-      <c r="V250" s="1"/>
-      <c r="W250" s="1"/>
-      <c r="X250" s="1"/>
-      <c r="Y250" s="1"/>
-      <c r="Z250" s="1"/>
-    </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
-      <c r="Q251" s="1"/>
-      <c r="R251" s="1"/>
-      <c r="S251" s="1"/>
-      <c r="T251" s="1"/>
-      <c r="U251" s="1"/>
-      <c r="V251" s="1"/>
-      <c r="W251" s="1"/>
-      <c r="X251" s="1"/>
-      <c r="Y251" s="1"/>
-      <c r="Z251" s="1"/>
-    </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
-      <c r="M252" s="1"/>
-      <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
-      <c r="P252" s="1"/>
-      <c r="Q252" s="1"/>
-      <c r="R252" s="1"/>
-      <c r="S252" s="1"/>
-      <c r="T252" s="1"/>
-      <c r="U252" s="1"/>
-      <c r="V252" s="1"/>
-      <c r="W252" s="1"/>
-      <c r="X252" s="1"/>
-      <c r="Y252" s="1"/>
-      <c r="Z252" s="1"/>
-    </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
-      <c r="K253" s="1"/>
-      <c r="L253" s="1"/>
-      <c r="M253" s="1"/>
-      <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
-      <c r="P253" s="1"/>
-      <c r="Q253" s="1"/>
-      <c r="R253" s="1"/>
-      <c r="S253" s="1"/>
-      <c r="T253" s="1"/>
-      <c r="U253" s="1"/>
-      <c r="V253" s="1"/>
-      <c r="W253" s="1"/>
-      <c r="X253" s="1"/>
-      <c r="Y253" s="1"/>
-      <c r="Z253" s="1"/>
-    </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-      <c r="I254" s="1"/>
-      <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
-      <c r="M254" s="1"/>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
-      <c r="P254" s="1"/>
-      <c r="Q254" s="1"/>
-      <c r="R254" s="1"/>
-      <c r="S254" s="1"/>
-      <c r="T254" s="1"/>
-      <c r="U254" s="1"/>
-      <c r="V254" s="1"/>
-      <c r="W254" s="1"/>
-      <c r="X254" s="1"/>
-      <c r="Y254" s="1"/>
-      <c r="Z254" s="1"/>
-    </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
-      <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
-      <c r="P255" s="1"/>
-      <c r="Q255" s="1"/>
-      <c r="R255" s="1"/>
-      <c r="S255" s="1"/>
-      <c r="T255" s="1"/>
-      <c r="U255" s="1"/>
-      <c r="V255" s="1"/>
-      <c r="W255" s="1"/>
-      <c r="X255" s="1"/>
-      <c r="Y255" s="1"/>
-      <c r="Z255" s="1"/>
-    </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A21:B22"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C51:E55"/>
-    <mergeCell ref="F51:G55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="F47:G48"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C25:E29"/>
+    <mergeCell ref="F25:G29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C21:E22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.22326454033771001" right="0.22326454033771001" top="0.20731707317073" bottom="0.22326454033771001" header="0" footer="0"/>
